--- a/_posts/2021-10-25-take-home-exercise-3/data/geospatial/selfsourced/top10_prisch_updated.xlsx
+++ b/_posts/2021-10-25-take-home-exercise-3/data/geospatial/selfsourced/top10_prisch_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IS415\IS415_msty\_posts\2021-10-25-take-home-exercise-3\data\geospatial\selfsourced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2291C0-42E3-4616-BB5E-137CF96C4462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0387970-2937-4BF8-9CB5-FF2B61563762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84BCD129-3D7F-420C-BDA1-3E17A62E24FC}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,13 +127,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
         <v>103.834253269436</v>
       </c>
       <c r="C11" s="5">
-        <v>103.834253269436</v>
+        <v>1.37347687878916</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
